--- a/data/annotation/finance_ma.xlsx
+++ b/data/annotation/finance_ma.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiayewken/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiayewken/Downloads/Projects/Work/MultimodalFinance/data/annotation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291F7B79-71B2-ED4E-9BE1-E2A5DD428EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34E3582-ADD5-6940-8FAB-37E69180CD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{752BAC88-3D22-6345-9E5D-6A586CA68B77}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3545" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3546" uniqueCount="814">
   <si>
     <t>assign</t>
   </si>
@@ -132,6 +132,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the target texts:</t>
     </r>
@@ -164,6 +165,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>What potential implications could the restatement of Shake Shack's financial statements have on investor confidence and the company's future financial reporting processes? Consider both short-term and long-term effects in your response.</t>
     </r>
@@ -181,6 +183,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">How does Fisker's new dealer partnership model aim to create a "win-win-win" situation, and </t>
     </r>
@@ -189,6 +192,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>what potential challenges might arise in implementing this strategy?</t>
     </r>
@@ -211,6 +215,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the target tables:</t>
     </r>
@@ -243,6 +248,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Calculate the total amount of capital raised by Fisker Inc. through equity-related transactions (excluding debt instruments) from December 31, 2020 to December 31, 2023. Explain which line items you included in your calculation and why.</t>
     </r>
@@ -268,6 +274,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging test question based on the target texts:</t>
     </r>
@@ -300,6 +307,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>What potential conflict exists between Section 10.16 (Governing Law) and Section 10.18 (Force Majeure), and how might this conflict be resolved in a legal dispute?</t>
     </r>
@@ -325,6 +333,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the equity compensation plan information provided in the table:</t>
     </r>
@@ -357,6 +366,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>What percentage of the total securities available for future issuance under equity compensation plans (both approved and not approved by security holders) are allocated to plans approved by security holders?</t>
     </r>
@@ -410,6 +420,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging test question based on the target table:</t>
     </r>
@@ -442,6 +453,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>If the company wanted to maximize its total GLA signed while maintaining an average TI and Incentives per Sq. Ft. below $15, what is the maximum number of new leases they could sign, assuming they keep the number of renewal leases constant?</t>
     </r>
@@ -464,6 +476,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the target texts:</t>
     </r>
@@ -496,6 +509,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>How might the company's use of interest rate swaps and their accounting treatment potentially impact its financial statements, and what factors should investors consider when evaluating this impact?</t>
     </r>
@@ -518,6 +532,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the target table:</t>
     </r>
@@ -550,6 +565,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Calculate the percentage change in domestic income from 2022 to 2023. What economic or business factors might explain this significant change?</t>
     </r>
@@ -624,6 +640,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the financial information provided in the balance sheet:</t>
     </r>
@@ -656,6 +673,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>What was the year-over-year percentage change in Deluxe Corporation's total current assets from December 31, 2022 to December 31, 2023, and what was the primary driver of this change?</t>
     </r>
@@ -669,6 +687,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the target tables:</t>
     </r>
@@ -701,6 +720,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Calculate the year-over-year percentage change in Interest expense from 2022 to 2023. Express your answer as a percentage rounded to one decimal place.</t>
     </r>
@@ -714,6 +734,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the target texts:</t>
     </r>
@@ -746,6 +767,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>What potential conflict exists between the company's cybersecurity insurance coverage and its ability to fully mitigate financial losses from cyberattacks, and how might this impact the company's risk management strategy?</t>
     </r>
@@ -819,6 +841,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the target table:</t>
     </r>
@@ -851,6 +874,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>If Linxis's net revenue for the year ended September 30, 2023 was $324.4 million, and its income from continuing operations before income taxes was $14.2 million, what was its pre-tax profit margin for that period?</t>
     </r>
@@ -867,6 +891,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">How does Hillenbrand's approach to establishing reserves for different types of claims, such as those </t>
     </r>
@@ -875,6 +900,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>covered by insurance</t>
     </r>
@@ -883,6 +909,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> versus other claims, differ, and what factors contribute to this difference in methodology?</t>
     </r>
@@ -900,6 +927,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the target texts:</t>
     </r>
@@ -932,6 +960,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>What overarching theme do the action verbs in the target text suggest about the company's approach to the future, and how might this relate to their financial reporting in the Form 10-K?</t>
     </r>
@@ -969,6 +998,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the target texts:</t>
     </r>
@@ -1001,6 +1031,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>How might Guess's decision to fulfill the Put Option and acquire the remaining 30% stake in Guess CIS potentially conflict with the sanctions imposed on Russia, and what steps has the company taken to ensure compliance?</t>
     </r>
@@ -1026,6 +1057,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">How does the relationship between CEO Compensation Actually Paid (CAP) and Encompass Health Corporation's Total Shareholder Return (EHC TSR) change from FY 2021 to FY 2023? Explain the trend and </t>
     </r>
@@ -1034,6 +1066,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>potential reasons</t>
     </r>
@@ -1042,6 +1075,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> for this relationship.</t>
     </r>
@@ -1064,6 +1098,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the table in the document:</t>
     </r>
@@ -1096,6 +1131,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>What is the total number of new beds planned for development across all locations in 2025, and how does this compare to the total number planned for 2024?</t>
     </r>
@@ -1120,6 +1156,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the given text:</t>
     </r>
@@ -1152,6 +1189,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>If Encompass Health Corporation were to acquire another inpatient rehabilitation operation for $50 million in 2024, with $30 million of that amount attributed to goodwill, what would be the expected total goodwill balance at the end of 2024, assuming no impairments or other changes?</t>
     </r>
@@ -1202,6 +1240,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the target texts:</t>
     </r>
@@ -1234,6 +1273,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>How might changes in market conditions or economic expectations impact the company's financial statements, particularly in relation to their critical accounting policies for impairments and Master Planned Communities cost of sales? Consider the interplay between various factors mentioned in the text.</t>
     </r>
@@ -1253,6 +1293,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">What percentage of Fortune Brands' North American housing market share in 2023 came from new construction projects, and </t>
     </r>
@@ -1261,6 +1302,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>how does this distribution reflect their overall business strategy?</t>
     </r>
@@ -1277,6 +1319,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the target table:</t>
     </r>
@@ -1309,6 +1352,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Calculate the percentage change in International sales from 2021 to 2023. Express your answer as a percentage rounded to one decimal place.</t>
     </r>
@@ -1328,6 +1372,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the target text:</t>
     </r>
@@ -1360,6 +1405,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Calculate the total pre-tax reclassifications out of accumulated other comprehensive income (loss) for cash flow hedges in 2023. Then, explain why this amount differs from the net of tax amount shown for cash flow hedges in the same year.</t>
     </r>
@@ -1377,6 +1423,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the target texts:</t>
     </r>
@@ -1409,6 +1456,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>What potential limitation or disclaimer does the company provide regarding the stock performance graph, and what might be the implications of this for investors relying on the information?</t>
     </r>
@@ -1434,6 +1482,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the target text:</t>
     </r>
@@ -1466,6 +1515,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">What potential conflict of interest does the company's strategic cooperation agreement with Lockheed Martin create, and </t>
     </r>
@@ -1474,6 +1524,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>how might this impact the company's relationships with other customers?</t>
     </r>
@@ -1517,6 +1568,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the target texts:</t>
     </r>
@@ -1549,6 +1601,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>How might the company's change in accounting policy for PLCC Funds impact the analysis of its financial performance compared to industry peers, and what potential risks or benefits could this change introduce?</t>
     </r>
@@ -1578,6 +1631,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the table:</t>
     </r>
@@ -1610,6 +1664,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>If the convertible bond is fully converted to shares, what percentage of the total outstanding shares would be held by the predecessor senior secured lenders and new money lenders (holders of subscription rights) combined?</t>
     </r>
@@ -1623,6 +1678,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the target texts:</t>
     </r>
@@ -1655,6 +1711,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>How did Seadrill's acquisition of Aquadrill and subsequent divestitures in 2023 impact the company's fleet composition and financial reporting? Consider changes in owned vs. managed rigs, accounting treatment, and effects on the balance sheet.</t>
     </r>
@@ -1674,6 +1731,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging test question based on the target tables:</t>
     </r>
@@ -1706,6 +1764,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Calculate the percentage increase in long-term contract liabilities (deferred revenue) from November 30, 2022 to November 30, 2023. Round your answer to the nearest whole percent.</t>
     </r>
@@ -1754,6 +1813,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging test question based on the target table:</t>
     </r>
@@ -1786,6 +1846,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>If the company granted an additional 50,000 Performance Units at the end of 2023 with the same weighted average grant date fair value as the existing units, what would be the new total number of unvested Performance Units and the new weighted average grant date fair value per unit? Round your answer to two decimal places.</t>
     </r>
@@ -1811,6 +1872,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>What is the percentage increase in the number of customers from December 31, 2019, to December 31, 2023, and</t>
     </r>
@@ -1819,6 +1881,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> what factors might have contributed to this growth according to the company's business model?</t>
     </r>
@@ -1832,6 +1895,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Analyze the stock performance graph and discuss the trends observed for Sunnova compared to the NYSE Composite and Invesco Solar ETF from July 25, 2019, to December 31, 2023. </t>
     </r>
@@ -1840,6 +1904,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>What factors might contribute to the differences in performance among these indices?</t>
     </r>
@@ -1853,6 +1918,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the target table:</t>
     </r>
@@ -1885,6 +1951,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Calculate the percentage change in net cash used in investing activities from 2022 to 2023. Express your answer as a percentage rounded to one decimal place.</t>
     </r>
@@ -1928,6 +1995,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">How did the dividend per share trend for Bank of Hawai‘i Corporation change during the financial crisis compared to the COVID-19 period, and </t>
     </r>
@@ -1936,6 +2004,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>what might this indicate about the bank's financial resilience</t>
     </r>
@@ -1944,6 +2013,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>?</t>
     </r>
@@ -1966,6 +2036,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">What was the percentage change in the total shareholders' equity from 2022 to 2023, and </t>
     </r>
@@ -1974,6 +2045,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>what factors might have contributed to this change</t>
     </r>
@@ -1982,6 +2054,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>?</t>
     </r>
@@ -2025,6 +2098,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the target tables:</t>
     </r>
@@ -2057,6 +2131,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>If the company's weighted average remaining lease term for operating leases decreased by 0.5 years from 2022 to 2023, and the cash paid for operating lease liabilities increased by $22,000, what would be the approximate percentage change in ROU assets obtained in exchange for operating lease liabilities from 2022 to 2023?</t>
     </r>
@@ -2076,6 +2151,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the target text:</t>
     </r>
@@ -2108,6 +2184,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Calculate the gross profit margin percentage for Marine Products Corporation in 2023 and 2022. What trend do you observe, and </t>
     </r>
@@ -2116,6 +2193,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>what might this indicate about the company's pricing power or cost management</t>
     </r>
@@ -2124,6 +2202,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>?</t>
     </r>
@@ -2158,6 +2237,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the target table:</t>
     </r>
@@ -2190,6 +2270,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>If the company's data provider commitments increase by 15% each year after 2026, what would be the total commitment amount for the three years following 2026?</t>
     </r>
@@ -2203,6 +2284,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the given text:</t>
     </r>
@@ -2235,6 +2317,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>What potential risk does the company acknowledge regarding its internal controls, despite having remediated previously reported material weaknesses, and how might this impact their financial reporting?</t>
     </r>
@@ -2260,6 +2343,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the graph:</t>
     </r>
@@ -2292,6 +2376,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>What was the approximate percentage difference between JLL's cumulative total return and that of the S&amp;P 500 at the end of 2023?</t>
     </r>
@@ -2317,6 +2402,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the target texts:</t>
     </r>
@@ -2349,6 +2435,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>What trend can be observed in the movement of goodwill across different segments between 2022 and 2023, and what factor likely contributed most significantly to this trend?</t>
     </r>
@@ -2365,6 +2452,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the target texts:</t>
     </r>
@@ -2397,6 +2485,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>How does JLL's "One JLL approach" contribute to the company's resilience and ability to serve clients effectively in challenging market conditions?</t>
     </r>
@@ -2439,6 +2528,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the target texts:</t>
     </r>
@@ -2471,6 +2561,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>How does Crown's approach to growth and expansion demonstrate a balance between global capabilities and local market understanding? Provide specific examples from the text to support your answer.</t>
     </r>
@@ -2493,6 +2584,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Based on the performance graph shown, which company or index demonstrated the most volatile performance over the time period displayed, and </t>
     </r>
@@ -2501,6 +2593,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>what factors might explain this volatility compared to the other entities tracked</t>
     </r>
@@ -2509,6 +2602,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>?</t>
     </r>
@@ -2522,6 +2616,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging test question based on the target tables:</t>
     </r>
@@ -2554,6 +2649,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Calculate the percentage change in Adjusted EBITDA from 2022 to 2023, and explain how this change relates to the trends observed in the Medical Loss Ratio and InsuranceCo Administrative Expense Ratio over the same period. </t>
     </r>
@@ -2562,6 +2658,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>What might these changes suggest about the company's operational efficiency?</t>
     </r>
@@ -2596,6 +2693,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">What trends can be observed in the cumulative total return of Matador Resources Company compared to the Russell 2000 and Russell 2000 Energy indices from December 31, 2018, to December 31, 2023, and </t>
     </r>
@@ -2604,6 +2702,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>what might this indicate about the company's performance relative to these indices?</t>
     </r>
@@ -2629,6 +2728,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the target table:</t>
     </r>
@@ -2661,6 +2761,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>The company reported unrecognized tax benefits (UTBs) for the first time in 2023. What percentage of the total UTB balance at the end of 2023 was related to the U.S. federal jurisdiction?</t>
     </r>
@@ -2720,6 +2821,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the target texts:</t>
     </r>
@@ -2752,6 +2854,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>How might a bank holding company's ability to raise additional capital and pay dividends be interconnected, and what potential consequences could arise from regulatory constraints on both activities?</t>
     </r>
@@ -2765,6 +2868,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the target texts:</t>
     </r>
@@ -2797,6 +2901,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>What potential risk factor is notably absent from the summary, given the company's focus on banking and financial services, and how might this omission impact investors' understanding of the company's risk profile?</t>
     </r>
@@ -2822,6 +2927,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the table data:</t>
     </r>
@@ -2854,6 +2960,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Calculate the percentage change in the weighted average fair value at date of grant for outstanding RSUs from the end of 2021 to the end of 2023. Round your answer to the nearest whole percentage.</t>
     </r>
@@ -2873,6 +2980,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging test question based on the target texts:</t>
     </r>
@@ -2905,6 +3013,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Calculate the percentage increase in loans and finance receivables at fair value from 2022 to 2023. Then, compare this growth rate to the percentage increase in long-term debt over the same period. What might this comparison suggest about the company's financing strategy?</t>
     </r>
@@ -2957,6 +3066,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the target texts:</t>
     </r>
@@ -2989,6 +3099,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>How does Zoetis' approach to sustainability and corporate social responsibility demonstrate a holistic view of animal health and its impact on broader societal issues?</t>
     </r>
@@ -3020,6 +3131,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">What factors contributed to the change in total equity from January 1, 2023, to December 31, 2023, and </t>
     </r>
@@ -3028,6 +3140,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>how did these factors impact the overall financial position of Masonite International Corporation?</t>
     </r>
@@ -3047,6 +3160,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the target texts:</t>
     </r>
@@ -3079,6 +3193,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>What potential economic factor not explicitly mentioned in the text could significantly impact the company's business in the residential construction market, and how might it affect their operations?</t>
     </r>
@@ -3092,6 +3207,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the target texts:</t>
     </r>
@@ -3124,6 +3240,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Calculate the total interest expense for the company's consolidated indebtedness over the three-year period mentioned, and explain why this amount may not simply be the sum of the annual interest expenses provided.</t>
     </r>
@@ -3143,6 +3260,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">What changes occurred in the allocation of fixed income securities for both domestic and international plans from 2022 to 2023, and </t>
     </r>
@@ -3151,6 +3269,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>what might be the potential reasons for these changes</t>
     </r>
@@ -3159,6 +3278,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>?</t>
     </r>
@@ -3212,6 +3332,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the target table:</t>
     </r>
@@ -3244,6 +3365,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>If the company were to sell 40% of its acquired robot technology immediately after the acquisition, what would be the approximate book value of the remaining robot technology asset (in US$), assuming straight-line amortization over the 8-year period and no impairment?</t>
     </r>
@@ -3293,6 +3415,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the target table:</t>
     </r>
@@ -3325,6 +3448,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Calculate the percentage difference between the carrying amount and fair value of long-term debt as of December 31, 2023. Express your answer as a percentage rounded to one decimal place.</t>
     </r>
@@ -3338,6 +3462,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the given text:</t>
     </r>
@@ -3370,6 +3495,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>If the stock price increased by 15% between June 30, 2023 and February 9, 2024, and assuming no changes in the number of outstanding shares, what would be the approximate market capitalization of Northwestern Energy Group, Inc. on February 9, 2024?</t>
     </r>
@@ -3398,6 +3524,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Compare the performance of Cigna's stock to the S&amp;P 500 and the S&amp;P 500 Health Care Index from 2018 to 2023. What trends do you observe, and</t>
     </r>
@@ -3406,6 +3533,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> what might be some factors influencing these trends?</t>
     </r>
@@ -3440,6 +3568,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Analyze the trends in the cumulative total return for Kronos Worldwide Inc, the S&amp;P 500 Index, and the current peer group from 2018 to 2023. </t>
     </r>
@@ -3448,6 +3577,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>What factors might explain the differences in performance among these groups over this period?</t>
     </r>
@@ -3467,6 +3597,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Analyzing Kronos's market share in Europe and North America from 2021 to 2023, </t>
     </r>
@@ -3475,6 +3606,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>what factors might explain the observed trend and its potential implications for the company's future strategy?</t>
     </r>
@@ -3521,6 +3653,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the given text:</t>
     </r>
@@ -3553,6 +3686,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>What potential challenges or risks might Enservco face in completing the Buckshot Trucking acquisition, considering the various conditions and requirements outlined in the purchase agreement?</t>
     </r>
@@ -3575,6 +3709,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Identify the company in the organizational structure that holds a 99.99% equity interest in OneConnect Smart Technology Philippines, Inc. and </t>
     </r>
@@ -3583,6 +3718,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>explain the significance of this ownership in terms of strategic business operations.</t>
     </r>
@@ -3611,6 +3747,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">What are the key differences in the protection and enforcement mechanisms between trademark and patent laws in the PRC, and </t>
     </r>
@@ -3619,6 +3756,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>how do these differences impact the rights and obligations of trademark registrants and patent holders?</t>
     </r>
@@ -3632,6 +3770,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the target texts:</t>
     </r>
@@ -3664,6 +3803,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">How might the discretionary proxy provision in the deposit agreement potentially create a conflict of interest between ADS holders and ordinary shareholders, and </t>
     </r>
@@ -3672,6 +3812,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>what specific scenario could illustrate this conflict?</t>
     </r>
@@ -3685,6 +3826,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>What was the trend in diluted net income per share from 2019 to 2023, and</t>
     </r>
@@ -3693,6 +3835,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> what factors might have contributed to the changes observed in 2023 compared to previous years?</t>
     </r>
@@ -3718,6 +3861,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">What was the trend in capital expenditures from 2019 to 2023, and </t>
     </r>
@@ -3726,6 +3870,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>how might this reflect Robert Half's strategic priorities during this period?</t>
     </r>
@@ -3739,6 +3884,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the financial statements provided:</t>
     </r>
@@ -3771,6 +3917,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">What percentage of Robert Half's total assets were classified as current assets as of December 31, 2023, and how does this compare to the previous year? </t>
     </r>
@@ -3779,6 +3926,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Explain what this change might indicate about the company's liquidity position.</t>
     </r>
@@ -3846,6 +3994,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Based on the stock performance graph, what significant trend can be observed for CVNA's cumulative total return compared to the S&amp;P 500 and S&amp;P 500 Retailing Index between 2020 and 2022, and </t>
     </r>
@@ -3854,6 +4003,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>what might this suggest about the company's performance during this period?</t>
     </r>
@@ -3885,6 +4035,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">What factors contributed to the increase in retail vehicle gross profit per unit from </t>
     </r>
@@ -3893,6 +4044,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>2021 to 2022</t>
     </r>
@@ -3901,6 +4053,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>, and how did this impact overall retail vehicle gross profit despite a decrease in units sold?</t>
     </r>
@@ -3917,6 +4070,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">What factors might contribute to Carvana's high average star rating of 4.7 based on customer reviews, and </t>
     </r>
@@ -3925,6 +4079,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>how could these factors impact the company's overall performance and reputation?</t>
     </r>
@@ -3938,6 +4093,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Based on the image provided, here is a challenging question that cannot be directly answered from the content:</t>
     </r>
@@ -3970,6 +4126,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>What leadership qualities or traits does this executive's appearance and expression suggest he may possess? Explain your reasoning.</t>
     </r>
@@ -4004,6 +4161,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the target texts:</t>
     </r>
@@ -4036,6 +4194,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Calculate the total notional value in USD of all foreign exchange forward contracts to sell USD as of December 31, 2023. Express your answer in millions of USD, rounded to the nearest million.</t>
     </r>
@@ -4052,6 +4211,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the target texts:</t>
     </r>
@@ -4084,6 +4244,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>How does Moody's approach to innovation and technology reflect its broader strategy for addressing global risks and opportunities in 2023?</t>
     </r>
@@ -4097,6 +4258,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">How did the performance of the Argentine peso against the U.S. dollar compare to the Mexican peso and Canadian dollar throughout 2023, and </t>
     </r>
@@ -4105,6 +4267,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>what implications might these trends have for a company with significant operations in Argentina?</t>
     </r>
@@ -4127,6 +4290,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the target tables:</t>
     </r>
@@ -4159,6 +4323,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Calculate the percentage increase in GEOs produced from 100% owned operations between full year 2022 and full year 2023. Express your answer as a percentage rounded to one decimal place.</t>
     </r>
@@ -4175,6 +4340,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the target texts:</t>
     </r>
@@ -4207,6 +4373,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>What common theme is present across Items 10-14 of this document, and what does this suggest about the company's disclosure approach for these items in their annual report?</t>
     </r>
@@ -4226,6 +4393,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">How does American Eagle Outfitters' cumulative total return compare to the S&amp;P MidCap 400 Index and its peer group over the five-year period shown, and </t>
     </r>
@@ -4234,6 +4402,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>what might explain the differences in performance trends?</t>
     </r>
@@ -4266,6 +4435,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the target texts:</t>
     </r>
@@ -4298,6 +4468,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">The company recorded significant asset impairment charges in Fiscal 2023. What factors or business changes likely contributed to these impairments, and </t>
     </r>
@@ -4306,6 +4477,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>how might they reflect broader trends or challenges in the company's operating environment?</t>
     </r>
@@ -4331,6 +4503,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Analyze the trend in the cumulative total return for Agilent Technologies from 2018 to 2023. How does its performance compare to the S&amp;P 500 and the Peer Group Index, and </t>
     </r>
@@ -4339,6 +4512,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>what might be some factors influencing these trends?</t>
     </r>
@@ -4379,6 +4553,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">What is the primary color scheme used in the Zymeworks logo, and </t>
     </r>
@@ -4387,6 +4562,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>how might these colors be interpreted in terms of branding and company values?</t>
     </r>
@@ -4415,6 +4591,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging test question based on the target texts:</t>
     </r>
@@ -4447,6 +4624,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>What is the primary purpose of the severance clause (16.7) in the employment contract, and how does it aim to protect the company's interests even if parts of the clause are found to be unenforceable?</t>
     </r>
@@ -4460,6 +4638,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the target texts:</t>
     </r>
@@ -4492,6 +4671,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Calculate the total lease payments due within the next 3 years according to the maturity schedule, and express this amount as a percentage of the total operating lease liabilities as of December 31, 2023. Round your answer to the nearest whole percentage.</t>
     </r>
@@ -4536,6 +4716,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Identify the countries where the company has blocks with working and/or economic interests as of December 31, 2023, and </t>
     </r>
@@ -4544,6 +4725,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>explain the significance of these locations in terms of strategic asset acquisition and market conditions.</t>
     </r>
@@ -4563,6 +4745,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the employee data table:</t>
     </r>
@@ -4595,6 +4778,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>What was the percentage change in the number of employees in Argentina from 2021 to 2023?</t>
     </r>
@@ -4608,6 +4792,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the information in the tables:</t>
     </r>
@@ -4640,6 +4825,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Calculate the percentage change in the total Asset retirement obligation from January 1, 2022 to December 31, 2023. What factors contributed most significantly to this change?</t>
     </r>
@@ -4665,6 +4851,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Compare the performance trends of Five Point Holdings, LLC, the S&amp;P 500, and the S&amp;P Homebuilders Select Industry Index from December 31, 2018, to December 31, 2023. </t>
     </r>
@@ -4673,6 +4860,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>What factors might explain the differences in their cumulative total returns over this period?</t>
     </r>
@@ -4692,6 +4880,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the target table:</t>
     </r>
@@ -4724,6 +4913,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Calculate the percentage increase in total tax distributions from 2022 to 2023. Express your answer as a percentage rounded to the nearest whole number.</t>
     </r>
@@ -4743,6 +4933,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the target text:</t>
     </r>
@@ -4775,6 +4966,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Calculate the percentage change in Total Members' Capital from December 31, 2021 to December 31, 2023. Round your answer to two decimal places.</t>
     </r>
@@ -4816,6 +5008,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the target texts:</t>
     </r>
@@ -4848,6 +5041,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>A company grants a performance-based stock option award that vests upon achieving a certain earnings per share target over a 3-year period. The target is met in Year 3, but the company discovers an accounting error in Year 5 that, when corrected, shows the target was not actually achieved. Under Zuora's policy, in which year would this award be considered "Received" for clawback purposes, and why?</t>
     </r>
@@ -4870,6 +5064,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">What does the logo in the image represent, and </t>
     </r>
@@ -4878,6 +5073,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>how does its design relate to the company's industry or business activities?</t>
     </r>
@@ -4909,6 +5105,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the target text:</t>
     </r>
@@ -4941,6 +5138,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>What strategic factors does SLB cite as driving its optimistic outlook for 2024 and beyond, and how do these align with the company's plans for shareholder returns?</t>
     </r>
@@ -5023,6 +5221,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the target texts:</t>
     </r>
@@ -5055,6 +5254,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Calculate the percentage change in diluted net income per share attributable to common stockholders from fiscal year 2023 to fiscal year 2024. What factors likely contributed to this change?</t>
     </r>
@@ -5068,6 +5268,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the target texts:</t>
     </r>
@@ -5100,6 +5301,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>How might the evolving landscape of data protection laws in different regions impact a cloud service provider's ability to operate globally, and what specific challenges could arise from the interplay between EU, UK, and US regulations?</t>
     </r>
@@ -5125,6 +5327,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the target tables:</t>
     </r>
@@ -5157,6 +5360,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Calculate the percentage change in the accretion of redeemable noncontrolling interest to redemption value from 2021 to 2022. What might this significant change suggest about the company's financial position or strategy during this period?</t>
     </r>
@@ -5185,6 +5389,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Under what specific conditions would the Aggregate Put Purchase Price be determined based on the terms offered to Blend Stockholders in a proposed Company Sale, and </t>
     </r>
@@ -5193,6 +5398,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>what is the alternative valuation method if those conditions are not met?</t>
     </r>
@@ -5212,6 +5418,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>What is the significance of the logo depicted in the document, and</t>
     </r>
@@ -5220,6 +5427,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> how might it relate to the company's branding or industry?</t>
     </r>
@@ -5259,6 +5467,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Based on the image provided, here is a challenging question:</t>
     </r>
@@ -5291,6 +5500,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>What can be inferred about the organizational culture at Neuberger Berman from the attire and grouping of the individuals shown?</t>
     </r>
@@ -5316,6 +5526,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the target tables:</t>
     </r>
@@ -5348,6 +5559,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">What trend can be observed in the company's engagement with corporate management teams from 2018 to 2022, and how does this relate to the change in their AUM engagement for public equity over the same period? </t>
     </r>
@@ -5356,6 +5568,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Explain the potential implications of these trends for the company's ESG strategy.</t>
     </r>
@@ -5397,6 +5610,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Based on the stock performance graph, which company showed the most volatility in its stock price over the 5-year period from 2018 to 2023, </t>
     </r>
@@ -5405,6 +5619,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>and what factors might explain this volatility compared to the benchmark indices?</t>
     </r>
@@ -5499,6 +5714,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Based on the provided</t>
     </r>
@@ -5507,6 +5723,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> image and text,</t>
     </r>
@@ -5515,6 +5732,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> what is likely a key aspect of Home Depot's customer service strategy?</t>
     </r>
@@ -5534,6 +5752,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">question is NOT asking for 'cause' of absence of instance document (which is in the content), but its asking for 'significance' of it - which means what's the </t>
     </r>
@@ -5542,6 +5761,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>CONSEQUENCE</t>
     </r>
@@ -5550,6 +5770,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>. (so its a hard-question, but anyone who know about compliance,, can guess this</t>
     </r>
@@ -5598,6 +5819,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">What factors contributed to the </t>
     </r>
@@ -5606,6 +5828,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>change in gross profit margin</t>
     </r>
@@ -5614,6 +5837,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> from fiscal year 2022 to fiscal year 2023, and how did these factors impact the overall financial performance?</t>
     </r>
@@ -5717,6 +5941,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> to </t>
     </r>
@@ -5735,6 +5960,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> to bring the portfolio to 90% investment grade?</t>
     </r>
@@ -5768,6 +5994,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>and</t>
     </r>
@@ -5785,6 +6012,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> of the Fixed-rate 3.75% Senior Secured Notes due 2025 as of December 31, 2023 and 2022?</t>
     </r>
@@ -5810,6 +6038,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>, and what factors should management consider when evaluating the potential ripple effects of such an increase on other aspects of the business?</t>
     </r>
@@ -5879,6 +6108,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Here's a challenging question based on the target table:</t>
     </r>
@@ -5899,6 +6129,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>What percentage decrease occurred in the balance of U.S. Defined Benefit Plans assets measured at fair value using significant unobservable inputs (Level 3)</t>
     </r>
@@ -5907,6 +6138,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -5915,6 +6147,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>from the beginning to the end of the fiscal year 2023?</t>
     </r>
@@ -5931,6 +6164,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">how </t>
     </r>
@@ -5950,6 +6184,7 @@
         <sz val="11"/>
         <color rgb="FFEA3324"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> this have impacted their financial strategy?</t>
     </r>
@@ -6026,6 +6261,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> greater than 50 points from its peak that year?</t>
     </r>
@@ -6133,6 +6369,9 @@
       </rPr>
       <t>how does it compare to the total amortized cost?</t>
     </r>
+  </si>
+  <si>
+    <t>valid</t>
   </si>
 </sst>
 </file>
@@ -6160,536 +6399,643 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFEA3324"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -6748,7 +7094,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -6771,13 +7117,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7132,6 +7487,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7452,8 +7810,8 @@
   <dimension ref="A1:L342"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A304" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L343" sqref="L343"/>
+      <pane ySplit="1" topLeftCell="A339" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L342" sqref="L342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7504,6 +7862,9 @@
       <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="118" t="s">
+        <v>813</v>
+      </c>
     </row>
     <row r="2" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -7536,8 +7897,8 @@
       <c r="J2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="114" t="b">
-        <f>AND(G2="yes", H2="yes", I2="yes",J2="yes")</f>
+      <c r="L2" s="114">
+        <f>INT(AND(G2="yes", H2="yes", I2="yes",J2="yes"))</f>
         <v>1</v>
       </c>
     </row>
@@ -7572,8 +7933,8 @@
       <c r="J3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="114" t="b">
-        <f t="shared" ref="L3:L66" si="0">AND(G3="yes", H3="yes", I3="yes",J3="yes")</f>
+      <c r="L3" s="114">
+        <f t="shared" ref="L3:L66" si="0">INT(AND(G3="yes", H3="yes", I3="yes",J3="yes"))</f>
         <v>1</v>
       </c>
     </row>
@@ -7608,7 +7969,7 @@
       <c r="J4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="114" t="b">
+      <c r="L4" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -7647,7 +8008,7 @@
       <c r="K5" s="34" t="s">
         <v>810</v>
       </c>
-      <c r="L5" s="114" t="b">
+      <c r="L5" s="114">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7683,7 +8044,7 @@
       <c r="J6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="114" t="b">
+      <c r="L6" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -7722,7 +8083,7 @@
       <c r="K7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L7" s="114" t="b">
+      <c r="L7" s="114">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7761,7 +8122,7 @@
       <c r="K8" s="117" t="s">
         <v>783</v>
       </c>
-      <c r="L8" s="114" t="b">
+      <c r="L8" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -7800,7 +8161,7 @@
       <c r="K9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="114" t="b">
+      <c r="L9" s="114">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7836,7 +8197,7 @@
       <c r="J10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="114" t="b">
+      <c r="L10" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -7872,7 +8233,7 @@
       <c r="J11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="114" t="b">
+      <c r="L11" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -7908,7 +8269,7 @@
       <c r="J12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="114" t="b">
+      <c r="L12" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -7944,7 +8305,7 @@
       <c r="J13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="114" t="b">
+      <c r="L13" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -7983,7 +8344,7 @@
       <c r="K14" s="5" t="s">
         <v>784</v>
       </c>
-      <c r="L14" s="114" t="b">
+      <c r="L14" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -8019,7 +8380,7 @@
       <c r="J15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="114" t="b">
+      <c r="L15" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -8055,7 +8416,7 @@
       <c r="J16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L16" s="114" t="b">
+      <c r="L16" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -8091,7 +8452,7 @@
       <c r="J17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="114" t="b">
+      <c r="L17" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -8127,7 +8488,7 @@
       <c r="J18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L18" s="114" t="b">
+      <c r="L18" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -8166,7 +8527,7 @@
       <c r="K19" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="L19" s="114" t="b">
+      <c r="L19" s="114">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8205,7 +8566,7 @@
       <c r="K20" s="5" t="s">
         <v>785</v>
       </c>
-      <c r="L20" s="114" t="b">
+      <c r="L20" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -8241,7 +8602,7 @@
       <c r="J21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="114" t="b">
+      <c r="L21" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -8277,7 +8638,7 @@
       <c r="J22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="114" t="b">
+      <c r="L22" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -8313,7 +8674,7 @@
       <c r="J23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L23" s="114" t="b">
+      <c r="L23" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -8352,7 +8713,7 @@
       <c r="K24" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="L24" s="114" t="b">
+      <c r="L24" s="114">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8388,7 +8749,7 @@
       <c r="J25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L25" s="114" t="b">
+      <c r="L25" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -8427,7 +8788,7 @@
       <c r="K26" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="L26" s="114" t="b">
+      <c r="L26" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -8463,7 +8824,7 @@
       <c r="J27" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L27" s="114" t="b">
+      <c r="L27" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -8502,7 +8863,7 @@
       <c r="K28" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="L28" s="114" t="b">
+      <c r="L28" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -8541,7 +8902,7 @@
       <c r="K29" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="L29" s="114" t="b">
+      <c r="L29" s="114">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8577,7 +8938,7 @@
       <c r="J30" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L30" s="114" t="b">
+      <c r="L30" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -8614,7 +8975,7 @@
         <v>17</v>
       </c>
       <c r="K31" s="114"/>
-      <c r="L31" s="114" t="b">
+      <c r="L31" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -8653,7 +9014,7 @@
       <c r="K32" s="34" t="s">
         <v>780</v>
       </c>
-      <c r="L32" s="114" t="b">
+      <c r="L32" s="114">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8689,7 +9050,7 @@
       <c r="J33" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L33" s="114" t="b">
+      <c r="L33" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -8725,7 +9086,7 @@
       <c r="J34" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L34" s="114" t="b">
+      <c r="L34" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -8764,7 +9125,7 @@
       <c r="K35" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="L35" s="114" t="b">
+      <c r="L35" s="114">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8800,7 +9161,7 @@
       <c r="J36" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L36" s="114" t="b">
+      <c r="L36" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -8836,7 +9197,7 @@
       <c r="J37" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L37" s="114" t="b">
+      <c r="L37" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -8872,7 +9233,7 @@
       <c r="J38" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L38" s="114" t="b">
+      <c r="L38" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -8908,7 +9269,7 @@
       <c r="J39" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L39" s="114" t="b">
+      <c r="L39" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -8947,7 +9308,7 @@
       <c r="K40" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="L40" s="114" t="b">
+      <c r="L40" s="114">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8986,7 +9347,7 @@
       <c r="K41" s="34" t="s">
         <v>787</v>
       </c>
-      <c r="L41" s="114" t="b">
+      <c r="L41" s="114">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9022,7 +9383,7 @@
       <c r="J42" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L42" s="114" t="b">
+      <c r="L42" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -9058,7 +9419,7 @@
       <c r="J43" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L43" s="114" t="b">
+      <c r="L43" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -9094,7 +9455,7 @@
       <c r="J44" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L44" s="114" t="b">
+      <c r="L44" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -9133,7 +9494,7 @@
       <c r="K45" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="L45" s="114" t="b">
+      <c r="L45" s="114">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9172,7 +9533,7 @@
       <c r="K46" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="L46" s="114" t="b">
+      <c r="L46" s="114">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9208,7 +9569,7 @@
       <c r="J47" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L47" s="114" t="b">
+      <c r="L47" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -9244,7 +9605,7 @@
       <c r="J48" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L48" s="114" t="b">
+      <c r="L48" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -9283,7 +9644,7 @@
       <c r="K49" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="L49" s="114" t="b">
+      <c r="L49" s="114">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9322,7 +9683,7 @@
       <c r="K50" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="L50" s="114" t="b">
+      <c r="L50" s="114">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9358,7 +9719,7 @@
       <c r="J51" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L51" s="114" t="b">
+      <c r="L51" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -9394,7 +9755,7 @@
       <c r="J52" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L52" s="114" t="b">
+      <c r="L52" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -9430,7 +9791,7 @@
       <c r="J53" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L53" s="114" t="b">
+      <c r="L53" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -9469,7 +9830,7 @@
       <c r="K54" s="34" t="s">
         <v>758</v>
       </c>
-      <c r="L54" s="114" t="b">
+      <c r="L54" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -9505,7 +9866,7 @@
       <c r="J55" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L55" s="114" t="b">
+      <c r="L55" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -9541,7 +9902,7 @@
       <c r="J56" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L56" s="114" t="b">
+      <c r="L56" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -9577,7 +9938,7 @@
       <c r="J57" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L57" s="114" t="b">
+      <c r="L57" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -9616,7 +9977,7 @@
       <c r="K58" s="34" t="s">
         <v>788</v>
       </c>
-      <c r="L58" s="114" t="b">
+      <c r="L58" s="114">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9655,7 +10016,7 @@
       <c r="K59" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="L59" s="114" t="b">
+      <c r="L59" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -9691,7 +10052,7 @@
       <c r="J60" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L60" s="114" t="b">
+      <c r="L60" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -9727,7 +10088,7 @@
       <c r="J61" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L61" s="114" t="b">
+      <c r="L61" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -9766,7 +10127,7 @@
       <c r="K62" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="L62" s="114" t="b">
+      <c r="L62" s="114">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9805,7 +10166,7 @@
       <c r="K63" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="L63" s="114" t="b">
+      <c r="L63" s="114">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9844,7 +10205,7 @@
       <c r="K64" s="114" t="s">
         <v>789</v>
       </c>
-      <c r="L64" s="114" t="b">
+      <c r="L64" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -9883,7 +10244,7 @@
       <c r="K65" s="114" t="s">
         <v>790</v>
       </c>
-      <c r="L65" s="114" t="b">
+      <c r="L65" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -9919,7 +10280,7 @@
       <c r="J66" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L66" s="114" t="b">
+      <c r="L66" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -9955,8 +10316,8 @@
       <c r="J67" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L67" s="114" t="b">
-        <f t="shared" ref="L67:L130" si="1">AND(G67="yes", H67="yes", I67="yes",J67="yes")</f>
+      <c r="L67" s="114">
+        <f t="shared" ref="L67:L130" si="1">INT(AND(G67="yes", H67="yes", I67="yes",J67="yes"))</f>
         <v>1</v>
       </c>
     </row>
@@ -9994,7 +10355,7 @@
       <c r="K68" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="L68" s="114" t="b">
+      <c r="L68" s="114">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10030,7 +10391,7 @@
       <c r="J69" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L69" s="114" t="b">
+      <c r="L69" s="114">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -10069,7 +10430,7 @@
       <c r="K70" s="114" t="s">
         <v>791</v>
       </c>
-      <c r="L70" s="114" t="b">
+      <c r="L70" s="114">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -10108,7 +10469,7 @@
       <c r="K71" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="L71" s="114" t="b">
+      <c r="L71" s="114">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -10144,7 +10505,7 @@
       <c r="J72" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L72" s="114" t="b">
+      <c r="L72" s="114">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -10180,7 +10541,7 @@
       <c r="J73" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L73" s="114" t="b">
+      <c r="L73" s="114">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -10219,7 +10580,7 @@
       <c r="K74" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="L74" s="114" t="b">
+      <c r="L74" s="114">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10255,7 +10616,7 @@
       <c r="J75" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L75" s="114" t="b">
+      <c r="L75" s="114">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -10291,7 +10652,7 @@
       <c r="J76" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L76" s="114" t="b">
+      <c r="L76" s="114">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -10327,7 +10688,7 @@
       <c r="J77" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L77" s="114" t="b">
+      <c r="L77" s="114">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -10366,7 +10727,7 @@
       <c r="K78" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="L78" s="114" t="b">
+      <c r="L78" s="114">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -10405,7 +10766,7 @@
       <c r="K79" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="L79" s="114" t="b">
+      <c r="L79" s="114">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10441,7 +10802,7 @@
       <c r="J80" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L80" s="114" t="b">
+      <c r="L80" s="114">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -10477,7 +10838,7 @@
       <c r="J81" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L81" s="114" t="b">
+      <c r="L81" s="114">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -10513,7 +10874,7 @@
       <c r="J82" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L82" s="114" t="b">
+      <c r="L82" s="114">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -10549,7 +10910,7 @@
       <c r="J83" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L83" s="114" t="b">
+      <c r="L83" s="114">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -10588,7 +10949,7 @@
       <c r="K84" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="L84" s="114" t="b">
+      <c r="L84" s="114">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10627,7 +10988,7 @@
       <c r="K85" s="115" t="s">
         <v>759</v>
       </c>
-      <c r="L85" s="114" t="b">
+      <c r="L85" s="114">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10663,7 +11024,7 @@
       <c r="J86" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L86" s="114" t="b">
+      <c r="L86" s="114">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -10699,12 +11060,12 @@
       <c r="J87" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L87" s="114" t="b">
+      <c r="L87" s="114">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" ht="80" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
         <v>11</v>
       </c>
@@ -10735,7 +11096,7 @@
       <c r="J88" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L88" s="114" t="b">
+      <c r="L88" s="114">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -10771,7 +11132,7 @@
       <c r="J89" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L89" s="114" t="b">
+      <c r="L89" s="114">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -10807,7 +11168,7 @@
       <c r="J90" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L90" s="114" t="b">
+      <c r="L90" s="114">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -10846,7 +11207,7 @@
       <c r="K91" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="L91" s="114" t="b">
+      <c r="L91" s="114">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10882,7 +11243,7 @@
       <c r="J92" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L92" s="114" t="b">
+      <c r="L92" s="114">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -10918,7 +11279,7 @@
       <c r="J93" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L93" s="114" t="b">
+      <c r="L93" s="114">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -10954,7 +11315,7 @@
       <c r="J94" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L94" s="114" t="b">
+      <c r="L94" s="114">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -10990,7 +11351,7 @@
       <c r="J95" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L95" s="114" t="b">
+      <c r="L95" s="114">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -11026,7 +11387,7 @@
       <c r="J96" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L96" s="114" t="b">
+      <c r="L96" s="114">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -11062,7 +11423,7 @@
       <c r="J97" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L97" s="114" t="b">
+      <c r="L97" s="114">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -11101,7 +11462,7 @@
       <c r="K98" s="34" t="s">
         <v>792</v>
       </c>
-      <c r="L98" s="114" t="b">
+      <c r="L98" s="114">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -11140,7 +11501,7 @@
       <c r="K99" s="34" t="s">
         <v>793</v>
       </c>
-      <c r="L99" s="114" t="b">
+      <c r="L99" s="114">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -11176,7 +11537,7 @@
       <c r="J100" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L100" s="114" t="b">
+      <c r="L100" s="114">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -11212,7 +11573,7 @@
       <c r="J101" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L101" s="114" t="b">
+      <c r="L101" s="114">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -11251,7 +11612,7 @@
       <c r="K102" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="L102" s="114" t="b">
+      <c r="L102" s="114">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -11287,7 +11648,7 @@
       <c r="J103" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L103" s="114" t="b">
+      <c r="L103" s="114">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -11323,7 +11684,7 @@
       <c r="J104" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L104" s="114" t="b">
+      <c r="L104" s="114">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -11362,7 +11723,7 @@
       <c r="K105" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="L105" s="114" t="b">
+      <c r="L105" s="114">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -11398,7 +11759,7 @@
       <c r="J106" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L106" s="114" t="b">
+      <c r="L106" s="114">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -11437,7 +11798,7 @@
       <c r="K107" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="L107" s="114" t="b">
+      <c r="L107" s="114">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -11476,7 +11837,7 @@
       <c r="K108" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="L108" s="114" t="b">
+      <c r="L108" s="114">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -11515,7 +11876,7 @@
       <c r="K109" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="L109" s="114" t="b">
+      <c r="L109" s="114">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -11551,7 +11912,7 @@
       <c r="J110" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L110" s="114" t="b">
+      <c r="L110" s="114">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -11587,7 +11948,7 @@
       <c r="J111" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L111" s="114" t="b">
+      <c r="L111" s="114">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -11623,7 +11984,7 @@
       <c r="J112" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L112" s="114" t="b">
+      <c r="L112" s="114">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -11659,7 +12020,7 @@
       <c r="J113" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L113" s="114" t="b">
+      <c r="L113" s="114">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -11698,7 +12059,7 @@
       <c r="K114" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="L114" s="114" t="b">
+      <c r="L114" s="114">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -11734,7 +12095,7 @@
       <c r="J115" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L115" s="114" t="b">
+      <c r="L115" s="114">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -11773,7 +12134,7 @@
       <c r="K116" s="34" t="s">
         <v>794</v>
       </c>
-      <c r="L116" s="114" t="b">
+      <c r="L116" s="114">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -11809,7 +12170,7 @@
       <c r="J117" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L117" s="114" t="b">
+      <c r="L117" s="114">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -11848,7 +12209,7 @@
       <c r="K118" s="114" t="s">
         <v>811</v>
       </c>
-      <c r="L118" s="114" t="b">
+      <c r="L118" s="114">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -11884,7 +12245,7 @@
       <c r="J119" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L119" s="114" t="b">
+      <c r="L119" s="114">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -11920,7 +12281,7 @@
       <c r="J120" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L120" s="114" t="b">
+      <c r="L120" s="114">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -11956,7 +12317,7 @@
       <c r="J121" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L121" s="114" t="b">
+      <c r="L121" s="114">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -11992,7 +12353,7 @@
       <c r="J122" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L122" s="114" t="b">
+      <c r="L122" s="114">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -12028,7 +12389,7 @@
       <c r="J123" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L123" s="114" t="b">
+      <c r="L123" s="114">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -12064,7 +12425,7 @@
       <c r="J124" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L124" s="114" t="b">
+      <c r="L124" s="114">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -12100,7 +12461,7 @@
       <c r="J125" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L125" s="114" t="b">
+      <c r="L125" s="114">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -12139,7 +12500,7 @@
       <c r="K126" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="L126" s="114" t="b">
+      <c r="L126" s="114">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -12175,7 +12536,7 @@
       <c r="J127" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L127" s="114" t="b">
+      <c r="L127" s="114">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -12214,7 +12575,7 @@
       <c r="K128" s="114" t="s">
         <v>795</v>
       </c>
-      <c r="L128" s="114" t="b">
+      <c r="L128" s="114">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -12253,7 +12614,7 @@
       <c r="K129" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="L129" s="114" t="b">
+      <c r="L129" s="114">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -12289,7 +12650,7 @@
       <c r="J130" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L130" s="114" t="b">
+      <c r="L130" s="114">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -12325,8 +12686,8 @@
       <c r="J131" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L131" s="114" t="b">
-        <f t="shared" ref="L131:L194" si="2">AND(G131="yes", H131="yes", I131="yes",J131="yes")</f>
+      <c r="L131" s="114">
+        <f t="shared" ref="L131:L194" si="2">INT(AND(G131="yes", H131="yes", I131="yes",J131="yes"))</f>
         <v>1</v>
       </c>
     </row>
@@ -12361,7 +12722,7 @@
       <c r="J132" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L132" s="114" t="b">
+      <c r="L132" s="114">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -12400,7 +12761,7 @@
       <c r="K133" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="L133" s="114" t="b">
+      <c r="L133" s="114">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -12439,7 +12800,7 @@
       <c r="K134" s="114" t="s">
         <v>796</v>
       </c>
-      <c r="L134" s="114" t="b">
+      <c r="L134" s="114">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -12478,7 +12839,7 @@
       <c r="K135" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="L135" s="114" t="b">
+      <c r="L135" s="114">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -12514,7 +12875,7 @@
       <c r="J136" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L136" s="114" t="b">
+      <c r="L136" s="114">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -12550,7 +12911,7 @@
       <c r="J137" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L137" s="114" t="b">
+      <c r="L137" s="114">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -12586,7 +12947,7 @@
       <c r="J138" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L138" s="114" t="b">
+      <c r="L138" s="114">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -12625,7 +12986,7 @@
       <c r="K139" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="L139" s="114" t="b">
+      <c r="L139" s="114">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -12661,7 +13022,7 @@
       <c r="J140" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L140" s="114" t="b">
+      <c r="L140" s="114">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -12697,7 +13058,7 @@
       <c r="J141" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L141" s="114" t="b">
+      <c r="L141" s="114">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -12733,7 +13094,7 @@
       <c r="J142" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L142" s="114" t="b">
+      <c r="L142" s="114">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -12772,7 +13133,7 @@
       <c r="K143" s="18" t="s">
         <v>332</v>
       </c>
-      <c r="L143" s="114" t="b">
+      <c r="L143" s="114">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -12808,7 +13169,7 @@
       <c r="J144" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L144" s="114" t="b">
+      <c r="L144" s="114">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -12844,7 +13205,7 @@
       <c r="J145" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L145" s="114" t="b">
+      <c r="L145" s="114">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -12883,7 +13244,7 @@
       <c r="K146" s="19" t="s">
         <v>339</v>
       </c>
-      <c r="L146" s="114" t="b">
+      <c r="L146" s="114">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -12919,7 +13280,7 @@
       <c r="J147" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L147" s="114" t="b">
+      <c r="L147" s="114">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -12955,7 +13316,7 @@
       <c r="J148" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L148" s="114" t="b">
+      <c r="L148" s="114">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -12991,7 +13352,7 @@
       <c r="J149" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L149" s="114" t="b">
+      <c r="L149" s="114">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -13027,7 +13388,7 @@
       <c r="J150" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L150" s="114" t="b">
+      <c r="L150" s="114">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -13063,12 +13424,12 @@
       <c r="J151" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L151" s="114" t="b">
+      <c r="L151" s="114">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" ht="80" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
         <v>240</v>
       </c>
@@ -13099,7 +13460,7 @@
       <c r="J152" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L152" s="114" t="b">
+      <c r="L152" s="114">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -13135,7 +13496,7 @@
       <c r="J153" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L153" s="114" t="b">
+      <c r="L153" s="114">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -13171,7 +13532,7 @@
       <c r="J154" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L154" s="114" t="b">
+      <c r="L154" s="114">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -13210,7 +13571,7 @@
       <c r="K155" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="L155" s="114" t="b">
+      <c r="L155" s="114">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -13249,7 +13610,7 @@
       <c r="K156" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="L156" s="114" t="b">
+      <c r="L156" s="114">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -13285,7 +13646,7 @@
       <c r="J157" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L157" s="114" t="b">
+      <c r="L157" s="114">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -13321,7 +13682,7 @@
       <c r="J158" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L158" s="114" t="b">
+      <c r="L158" s="114">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -13357,12 +13718,12 @@
       <c r="J159" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="L159" s="114" t="b">
+      <c r="L159" s="114">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" ht="80" x14ac:dyDescent="0.2">
       <c r="A160" s="5" t="s">
         <v>240</v>
       </c>
@@ -13393,7 +13754,7 @@
       <c r="J160" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L160" s="114" t="b">
+      <c r="L160" s="114">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -13429,7 +13790,7 @@
       <c r="J161" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L161" s="114" t="b">
+      <c r="L161" s="114">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -13468,7 +13829,7 @@
       <c r="K162" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="L162" s="114" t="b">
+      <c r="L162" s="114">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -13504,7 +13865,7 @@
       <c r="J163" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L163" s="114" t="b">
+      <c r="L163" s="114">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -13540,7 +13901,7 @@
       <c r="J164" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L164" s="114" t="b">
+      <c r="L164" s="114">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -13577,7 +13938,7 @@
         <v>17</v>
       </c>
       <c r="K165" s="114"/>
-      <c r="L165" s="114" t="b">
+      <c r="L165" s="114">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -13613,7 +13974,7 @@
       <c r="J166" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L166" s="114" t="b">
+      <c r="L166" s="114">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -13649,7 +14010,7 @@
       <c r="J167" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L167" s="114" t="b">
+      <c r="L167" s="114">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -13685,7 +14046,7 @@
       <c r="J168" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L168" s="114" t="b">
+      <c r="L168" s="114">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -13721,7 +14082,7 @@
       <c r="J169" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L169" s="114" t="b">
+      <c r="L169" s="114">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -13757,7 +14118,7 @@
       <c r="J170" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L170" s="114" t="b">
+      <c r="L170" s="114">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -13793,7 +14154,7 @@
       <c r="J171" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L171" s="114" t="b">
+      <c r="L171" s="114">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -13829,7 +14190,7 @@
       <c r="J172" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L172" s="114" t="b">
+      <c r="L172" s="114">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -13868,7 +14229,7 @@
       <c r="K173" s="23" t="s">
         <v>396</v>
       </c>
-      <c r="L173" s="114" t="b">
+      <c r="L173" s="114">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -13904,7 +14265,7 @@
       <c r="J174" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L174" s="114" t="b">
+      <c r="L174" s="114">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -13943,12 +14304,12 @@
       <c r="K175" s="24" t="s">
         <v>401</v>
       </c>
-      <c r="L175" s="114" t="b">
+      <c r="L175" s="114">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="146" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" ht="162" x14ac:dyDescent="0.2">
       <c r="A176" s="5" t="s">
         <v>240</v>
       </c>
@@ -13979,7 +14340,7 @@
       <c r="J176" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L176" s="114" t="b">
+      <c r="L176" s="114">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -14015,7 +14376,7 @@
       <c r="J177" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L177" s="114" t="b">
+      <c r="L177" s="114">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -14051,7 +14412,7 @@
       <c r="J178" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L178" s="114" t="b">
+      <c r="L178" s="114">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -14087,7 +14448,7 @@
       <c r="J179" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L179" s="114" t="b">
+      <c r="L179" s="114">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -14123,7 +14484,7 @@
       <c r="J180" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L180" s="114" t="b">
+      <c r="L180" s="114">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -14159,7 +14520,7 @@
       <c r="J181" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L181" s="114" t="b">
+      <c r="L181" s="114">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -14195,7 +14556,7 @@
       <c r="J182" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L182" s="114" t="b">
+      <c r="L182" s="114">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -14231,7 +14592,7 @@
       <c r="J183" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L183" s="114" t="b">
+      <c r="L183" s="114">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -14267,7 +14628,7 @@
       <c r="J184" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L184" s="114" t="b">
+      <c r="L184" s="114">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -14306,7 +14667,7 @@
       <c r="K185" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="L185" s="114" t="b">
+      <c r="L185" s="114">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -14342,12 +14703,12 @@
       <c r="J186" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L186" s="114" t="b">
+      <c r="L186" s="114">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:12" ht="112" x14ac:dyDescent="0.2">
       <c r="A187" s="5" t="s">
         <v>240</v>
       </c>
@@ -14381,7 +14742,7 @@
       <c r="K187" s="34" t="s">
         <v>797</v>
       </c>
-      <c r="L187" s="114" t="b">
+      <c r="L187" s="114">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -14420,7 +14781,7 @@
       <c r="K188" s="34" t="s">
         <v>806</v>
       </c>
-      <c r="L188" s="114" t="b">
+      <c r="L188" s="114">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -14459,7 +14820,7 @@
       <c r="K189" s="114" t="s">
         <v>761</v>
       </c>
-      <c r="L189" s="114" t="b">
+      <c r="L189" s="114">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -14495,7 +14856,7 @@
       <c r="J190" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L190" s="114" t="b">
+      <c r="L190" s="114">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -14531,7 +14892,7 @@
       <c r="J191" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L191" s="114" t="b">
+      <c r="L191" s="114">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -14570,7 +14931,7 @@
       <c r="K192" s="114" t="s">
         <v>798</v>
       </c>
-      <c r="L192" s="114" t="b">
+      <c r="L192" s="114">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -14609,7 +14970,7 @@
       <c r="K193" s="114" t="s">
         <v>799</v>
       </c>
-      <c r="L193" s="114" t="b">
+      <c r="L193" s="114">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -14648,7 +15009,7 @@
       <c r="K194" s="114" t="s">
         <v>762</v>
       </c>
-      <c r="L194" s="114" t="b">
+      <c r="L194" s="114">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -14687,8 +15048,8 @@
       <c r="K195" s="34" t="s">
         <v>763</v>
       </c>
-      <c r="L195" s="114" t="b">
-        <f t="shared" ref="L195:L258" si="3">AND(G195="yes", H195="yes", I195="yes",J195="yes")</f>
+      <c r="L195" s="114">
+        <f t="shared" ref="L195:L258" si="3">INT(AND(G195="yes", H195="yes", I195="yes",J195="yes"))</f>
         <v>1</v>
       </c>
     </row>
@@ -14723,7 +15084,7 @@
       <c r="J196" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L196" s="114" t="b">
+      <c r="L196" s="114">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -14759,7 +15120,7 @@
       <c r="J197" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L197" s="114" t="b">
+      <c r="L197" s="114">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -14795,7 +15156,7 @@
       <c r="J198" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L198" s="114" t="b">
+      <c r="L198" s="114">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -14831,7 +15192,7 @@
       <c r="J199" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L199" s="114" t="b">
+      <c r="L199" s="114">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -14867,7 +15228,7 @@
       <c r="J200" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L200" s="114" t="b">
+      <c r="L200" s="114">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -14903,7 +15264,7 @@
       <c r="J201" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L201" s="114" t="b">
+      <c r="L201" s="114">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -14939,7 +15300,7 @@
       <c r="J202" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L202" s="114" t="b">
+      <c r="L202" s="114">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -14978,7 +15339,7 @@
       <c r="K203" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="L203" s="114" t="b">
+      <c r="L203" s="114">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -15014,7 +15375,7 @@
       <c r="J204" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L204" s="114" t="b">
+      <c r="L204" s="114">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -15050,12 +15411,12 @@
       <c r="J205" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L205" s="114" t="b">
+      <c r="L205" s="114">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:12" ht="96" x14ac:dyDescent="0.2">
       <c r="A206" s="5" t="s">
         <v>453</v>
       </c>
@@ -15089,7 +15450,7 @@
       <c r="K206" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="L206" s="114" t="b">
+      <c r="L206" s="114">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -15128,7 +15489,7 @@
       <c r="K207" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="L207" s="114" t="b">
+      <c r="L207" s="114">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -15167,7 +15528,7 @@
       <c r="K208" s="37" t="s">
         <v>800</v>
       </c>
-      <c r="L208" s="114" t="b">
+      <c r="L208" s="114">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -15206,7 +15567,7 @@
       <c r="K209" s="117" t="s">
         <v>782</v>
       </c>
-      <c r="L209" s="114" t="b">
+      <c r="L209" s="114">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -15242,7 +15603,7 @@
       <c r="J210" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L210" s="114" t="b">
+      <c r="L210" s="114">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -15281,7 +15642,7 @@
       <c r="K211" s="114" t="s">
         <v>765</v>
       </c>
-      <c r="L211" s="114" t="b">
+      <c r="L211" s="114">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -15320,12 +15681,12 @@
       <c r="K212" s="25" t="s">
         <v>477</v>
       </c>
-      <c r="L212" s="114" t="b">
+      <c r="L212" s="114">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:12" ht="80" x14ac:dyDescent="0.2">
       <c r="A213" s="5" t="s">
         <v>453</v>
       </c>
@@ -15359,12 +15720,12 @@
       <c r="K213" s="34" t="s">
         <v>805</v>
       </c>
-      <c r="L213" s="114" t="b">
+      <c r="L213" s="114">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:12" ht="112" x14ac:dyDescent="0.2">
       <c r="A214" s="5" t="s">
         <v>453</v>
       </c>
@@ -15398,7 +15759,7 @@
       <c r="K214" s="114" t="s">
         <v>801</v>
       </c>
-      <c r="L214" s="114" t="b">
+      <c r="L214" s="114">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -15437,7 +15798,7 @@
       <c r="K215" s="117" t="s">
         <v>485</v>
       </c>
-      <c r="L215" s="114" t="b">
+      <c r="L215" s="114">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -15476,7 +15837,7 @@
       <c r="K216" s="26" t="s">
         <v>488</v>
       </c>
-      <c r="L216" s="114" t="b">
+      <c r="L216" s="114">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -15515,7 +15876,7 @@
       <c r="K217" s="34" t="s">
         <v>767</v>
       </c>
-      <c r="L217" s="114" t="b">
+      <c r="L217" s="114">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -15551,7 +15912,7 @@
       <c r="J218" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L218" s="114" t="b">
+      <c r="L218" s="114">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -15587,7 +15948,7 @@
       <c r="J219" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L219" s="114" t="b">
+      <c r="L219" s="114">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -15626,7 +15987,7 @@
       <c r="K220" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="L220" s="114" t="b">
+      <c r="L220" s="114">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -15662,7 +16023,7 @@
       <c r="J221" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L221" s="114" t="b">
+      <c r="L221" s="114">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -15698,7 +16059,7 @@
       <c r="J222" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L222" s="114" t="b">
+      <c r="L222" s="114">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -15734,7 +16095,7 @@
       <c r="J223" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L223" s="114" t="b">
+      <c r="L223" s="114">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -15773,7 +16134,7 @@
       <c r="K224" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="L224" s="114" t="b">
+      <c r="L224" s="114">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -15812,7 +16173,7 @@
       <c r="K225" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="L225" s="114" t="b">
+      <c r="L225" s="114">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -15851,7 +16212,7 @@
       <c r="K226" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="L226" s="114" t="b">
+      <c r="L226" s="114">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -15887,7 +16248,7 @@
       <c r="J227" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L227" s="114" t="b">
+      <c r="L227" s="114">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -15923,7 +16284,7 @@
       <c r="J228" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L228" s="114" t="b">
+      <c r="L228" s="114">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -15962,7 +16323,7 @@
       <c r="K229" s="114" t="s">
         <v>768</v>
       </c>
-      <c r="L229" s="114" t="b">
+      <c r="L229" s="114">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -16001,7 +16362,7 @@
       <c r="K230" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="L230" s="114" t="b">
+      <c r="L230" s="114">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -16037,7 +16398,7 @@
       <c r="J231" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L231" s="114" t="b">
+      <c r="L231" s="114">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -16076,7 +16437,7 @@
       <c r="K232" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="L232" s="114" t="b">
+      <c r="L232" s="114">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -16115,7 +16476,7 @@
       <c r="K233" s="27" t="s">
         <v>525</v>
       </c>
-      <c r="L233" s="114" t="b">
+      <c r="L233" s="114">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -16151,7 +16512,7 @@
       <c r="J234" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L234" s="114" t="b">
+      <c r="L234" s="114">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -16190,7 +16551,7 @@
       <c r="K235" s="116" t="s">
         <v>770</v>
       </c>
-      <c r="L235" s="114" t="b">
+      <c r="L235" s="114">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -16226,7 +16587,7 @@
       <c r="J236" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L236" s="114" t="b">
+      <c r="L236" s="114">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -16262,7 +16623,7 @@
       <c r="J237" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L237" s="114" t="b">
+      <c r="L237" s="114">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -16301,7 +16662,7 @@
       <c r="K238" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="L238" s="114" t="b">
+      <c r="L238" s="114">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -16340,7 +16701,7 @@
       <c r="K239" s="117" t="s">
         <v>781</v>
       </c>
-      <c r="L239" s="114" t="b">
+      <c r="L239" s="114">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -16376,7 +16737,7 @@
       <c r="J240" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L240" s="114" t="b">
+      <c r="L240" s="114">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -16415,7 +16776,7 @@
       <c r="K241" s="114" t="s">
         <v>772</v>
       </c>
-      <c r="L241" s="114" t="b">
+      <c r="L241" s="114">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -16454,7 +16815,7 @@
       <c r="K242" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="L242" s="114" t="b">
+      <c r="L242" s="114">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -16490,7 +16851,7 @@
       <c r="J243" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L243" s="114" t="b">
+      <c r="L243" s="114">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -16529,7 +16890,7 @@
       <c r="K244" s="28" t="s">
         <v>537</v>
       </c>
-      <c r="L244" s="114" t="b">
+      <c r="L244" s="114">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -16568,7 +16929,7 @@
       <c r="K245" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="L245" s="114" t="b">
+      <c r="L245" s="114">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -16607,7 +16968,7 @@
       <c r="K246" s="114" t="s">
         <v>774</v>
       </c>
-      <c r="L246" s="114" t="b">
+      <c r="L246" s="114">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -16643,7 +17004,7 @@
       <c r="J247" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L247" s="114" t="b">
+      <c r="L247" s="114">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -16679,7 +17040,7 @@
       <c r="J248" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L248" s="114" t="b">
+      <c r="L248" s="114">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -16715,7 +17076,7 @@
       <c r="J249" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L249" s="114" t="b">
+      <c r="L249" s="114">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -16751,7 +17112,7 @@
       <c r="J250" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L250" s="114" t="b">
+      <c r="L250" s="114">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -16790,7 +17151,7 @@
       <c r="K251" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="L251" s="114" t="b">
+      <c r="L251" s="114">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -16829,7 +17190,7 @@
       <c r="K252" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="L252" s="114" t="b">
+      <c r="L252" s="114">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -16865,7 +17226,7 @@
       <c r="J253" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L253" s="114" t="b">
+      <c r="L253" s="114">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -16901,7 +17262,7 @@
       <c r="J254" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L254" s="114" t="b">
+      <c r="L254" s="114">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -16940,7 +17301,7 @@
       <c r="K255" s="29" t="s">
         <v>569</v>
       </c>
-      <c r="L255" s="114" t="b">
+      <c r="L255" s="114">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -16976,7 +17337,7 @@
       <c r="J256" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L256" s="114" t="b">
+      <c r="L256" s="114">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -17015,7 +17376,7 @@
       <c r="K257" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="L257" s="114" t="b">
+      <c r="L257" s="114">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -17054,7 +17415,7 @@
       <c r="K258" s="114" t="s">
         <v>776</v>
       </c>
-      <c r="L258" s="114" t="b">
+      <c r="L258" s="114">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -17090,8 +17451,8 @@
       <c r="J259" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L259" s="114" t="b">
-        <f t="shared" ref="L259:L322" si="4">AND(G259="yes", H259="yes", I259="yes",J259="yes")</f>
+      <c r="L259" s="114">
+        <f t="shared" ref="L259:L322" si="4">INT(AND(G259="yes", H259="yes", I259="yes",J259="yes"))</f>
         <v>1</v>
       </c>
     </row>
@@ -17126,7 +17487,7 @@
       <c r="J260" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L260" s="114" t="b">
+      <c r="L260" s="114">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -17165,7 +17526,7 @@
       <c r="K261" s="114" t="s">
         <v>802</v>
       </c>
-      <c r="L261" s="114" t="b">
+      <c r="L261" s="114">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -17204,7 +17565,7 @@
       <c r="K262" s="34" t="s">
         <v>803</v>
       </c>
-      <c r="L262" s="114" t="b">
+      <c r="L262" s="114">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -17243,7 +17604,7 @@
       <c r="K263" s="114" t="s">
         <v>777</v>
       </c>
-      <c r="L263" s="114" t="b">
+      <c r="L263" s="114">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -17280,7 +17641,7 @@
         <v>17</v>
       </c>
       <c r="K264" s="114"/>
-      <c r="L264" s="114" t="b">
+      <c r="L264" s="114">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -17316,7 +17677,7 @@
       <c r="J265" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L265" s="114" t="b">
+      <c r="L265" s="114">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -17355,7 +17716,7 @@
       <c r="K266" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="L266" s="114" t="b">
+      <c r="L266" s="114">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -17394,7 +17755,7 @@
       <c r="K267" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="L267" s="114" t="b">
+      <c r="L267" s="114">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -17433,7 +17794,7 @@
       <c r="K268" s="114" t="s">
         <v>804</v>
       </c>
-      <c r="L268" s="114" t="b">
+      <c r="L268" s="114">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -17469,7 +17830,7 @@
       <c r="J269" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L269" s="114" t="b">
+      <c r="L269" s="114">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -17508,7 +17869,7 @@
       <c r="K270" s="34" t="s">
         <v>807</v>
       </c>
-      <c r="L270" s="114" t="b">
+      <c r="L270" s="114">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -17547,7 +17908,7 @@
       <c r="K271" s="30" t="s">
         <v>601</v>
       </c>
-      <c r="L271" s="114" t="b">
+      <c r="L271" s="114">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -17583,7 +17944,7 @@
       <c r="J272" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L272" s="114" t="b">
+      <c r="L272" s="114">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -17619,7 +17980,7 @@
       <c r="J273" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L273" s="114" t="b">
+      <c r="L273" s="114">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -17658,7 +18019,7 @@
       <c r="K274" s="114" t="s">
         <v>778</v>
       </c>
-      <c r="L274" s="114" t="b">
+      <c r="L274" s="114">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -17694,7 +18055,7 @@
       <c r="J275" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L275" s="114" t="b">
+      <c r="L275" s="114">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -17730,7 +18091,7 @@
       <c r="J276" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L276" s="114" t="b">
+      <c r="L276" s="114">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -17769,7 +18130,7 @@
       <c r="K277" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="L277" s="114" t="b">
+      <c r="L277" s="114">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -17808,7 +18169,7 @@
       <c r="K278" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="L278" s="114" t="b">
+      <c r="L278" s="114">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -17844,7 +18205,7 @@
       <c r="J279" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L279" s="114" t="b">
+      <c r="L279" s="114">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -17880,7 +18241,7 @@
       <c r="J280" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L280" s="114" t="b">
+      <c r="L280" s="114">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -17916,7 +18277,7 @@
       <c r="J281" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L281" s="114" t="b">
+      <c r="L281" s="114">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -17952,7 +18313,7 @@
       <c r="J282" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L282" s="114" t="b">
+      <c r="L282" s="114">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -17988,7 +18349,7 @@
       <c r="J283" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L283" s="114" t="b">
+      <c r="L283" s="114">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -18027,7 +18388,7 @@
       <c r="K284" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="L284" s="114" t="b">
+      <c r="L284" s="114">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -18063,7 +18424,7 @@
       <c r="J285" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L285" s="114" t="b">
+      <c r="L285" s="114">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -18099,7 +18460,7 @@
       <c r="J286" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L286" s="114" t="b">
+      <c r="L286" s="114">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -18138,7 +18499,7 @@
       <c r="K287" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="L287" s="114" t="b">
+      <c r="L287" s="114">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -18174,7 +18535,7 @@
       <c r="J288" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L288" s="114" t="b">
+      <c r="L288" s="114">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -18210,7 +18571,7 @@
       <c r="J289" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L289" s="114" t="b">
+      <c r="L289" s="114">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -18246,7 +18607,7 @@
       <c r="J290" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L290" s="114" t="b">
+      <c r="L290" s="114">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -18282,7 +18643,7 @@
       <c r="J291" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L291" s="114" t="b">
+      <c r="L291" s="114">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -18318,7 +18679,7 @@
       <c r="J292" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L292" s="114" t="b">
+      <c r="L292" s="114">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -18357,7 +18718,7 @@
       <c r="K293" s="114" t="s">
         <v>779</v>
       </c>
-      <c r="L293" s="114" t="b">
+      <c r="L293" s="114">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -18396,7 +18757,7 @@
       <c r="K294" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="L294" s="114" t="b">
+      <c r="L294" s="114">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -18432,7 +18793,7 @@
       <c r="J295" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L295" s="114" t="b">
+      <c r="L295" s="114">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -18471,7 +18832,7 @@
       <c r="K296" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="L296" s="114" t="b">
+      <c r="L296" s="114">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -18507,7 +18868,7 @@
       <c r="J297" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L297" s="114" t="b">
+      <c r="L297" s="114">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -18546,7 +18907,7 @@
       <c r="K298" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="L298" s="114" t="b">
+      <c r="L298" s="114">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -18582,7 +18943,7 @@
       <c r="J299" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L299" s="114" t="b">
+      <c r="L299" s="114">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -18618,7 +18979,7 @@
       <c r="J300" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L300" s="114" t="b">
+      <c r="L300" s="114">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -18657,7 +19018,7 @@
       <c r="K301" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="L301" s="114" t="b">
+      <c r="L301" s="114">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -18696,7 +19057,7 @@
       <c r="K302" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="L302" s="114" t="b">
+      <c r="L302" s="114">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -18732,7 +19093,7 @@
       <c r="J303" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L303" s="114" t="b">
+      <c r="L303" s="114">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -18768,7 +19129,7 @@
       <c r="J304" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L304" s="114" t="b">
+      <c r="L304" s="114">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -18804,7 +19165,7 @@
       <c r="J305" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L305" s="114" t="b">
+      <c r="L305" s="114">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -18840,7 +19201,7 @@
       <c r="J306" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L306" s="114" t="b">
+      <c r="L306" s="114">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -18879,7 +19240,7 @@
       <c r="K307" s="31" t="s">
         <v>679</v>
       </c>
-      <c r="L307" s="114" t="b">
+      <c r="L307" s="114">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -18918,7 +19279,7 @@
       <c r="K308" s="5" t="s">
         <v>682</v>
       </c>
-      <c r="L308" s="114" t="b">
+      <c r="L308" s="114">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -18957,7 +19318,7 @@
       <c r="K309" s="4" t="s">
         <v>665</v>
       </c>
-      <c r="L309" s="114" t="b">
+      <c r="L309" s="114">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -18993,7 +19354,7 @@
       <c r="J310" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L310" s="114" t="b">
+      <c r="L310" s="114">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -19029,7 +19390,7 @@
       <c r="J311" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L311" s="114" t="b">
+      <c r="L311" s="114">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -19068,7 +19429,7 @@
       <c r="K312" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="L312" s="114" t="b">
+      <c r="L312" s="114">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -19104,7 +19465,7 @@
       <c r="J313" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L313" s="114" t="b">
+      <c r="L313" s="114">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -19143,7 +19504,7 @@
       <c r="K314" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="L314" s="114" t="b">
+      <c r="L314" s="114">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -19182,7 +19543,7 @@
       <c r="K315" s="34" t="s">
         <v>808</v>
       </c>
-      <c r="L315" s="114" t="b">
+      <c r="L315" s="114">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -19218,7 +19579,7 @@
       <c r="J316" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L316" s="114" t="b">
+      <c r="L316" s="114">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -19257,7 +19618,7 @@
       <c r="K317" s="32" t="s">
         <v>703</v>
       </c>
-      <c r="L317" s="114" t="b">
+      <c r="L317" s="114">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -19293,7 +19654,7 @@
       <c r="J318" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L318" s="114" t="b">
+      <c r="L318" s="114">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -19332,7 +19693,7 @@
       <c r="K319" s="5" t="s">
         <v>708</v>
       </c>
-      <c r="L319" s="114" t="b">
+      <c r="L319" s="114">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -19368,7 +19729,7 @@
       <c r="J320" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L320" s="114" t="b">
+      <c r="L320" s="114">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -19407,7 +19768,7 @@
       <c r="K321" s="5" t="s">
         <v>682</v>
       </c>
-      <c r="L321" s="114" t="b">
+      <c r="L321" s="114">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -19443,7 +19804,7 @@
       <c r="J322" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L322" s="114" t="b">
+      <c r="L322" s="114">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -19479,8 +19840,8 @@
       <c r="J323" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L323" s="114" t="b">
-        <f t="shared" ref="L323:L341" si="5">AND(G323="yes", H323="yes", I323="yes",J323="yes")</f>
+      <c r="L323" s="114">
+        <f t="shared" ref="L323:L341" si="5">INT(AND(G323="yes", H323="yes", I323="yes",J323="yes"))</f>
         <v>1</v>
       </c>
     </row>
@@ -19518,7 +19879,7 @@
       <c r="K324" s="5" t="s">
         <v>719</v>
       </c>
-      <c r="L324" s="114" t="b">
+      <c r="L324" s="114">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -19554,7 +19915,7 @@
       <c r="J325" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L325" s="114" t="b">
+      <c r="L325" s="114">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -19593,7 +19954,7 @@
       <c r="K326" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="L326" s="114" t="b">
+      <c r="L326" s="114">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -19632,7 +19993,7 @@
       <c r="K327" s="5" t="s">
         <v>727</v>
       </c>
-      <c r="L327" s="114" t="b">
+      <c r="L327" s="114">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -19668,7 +20029,7 @@
       <c r="J328" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L328" s="114" t="b">
+      <c r="L328" s="114">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -19704,7 +20065,7 @@
       <c r="J329" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L329" s="114" t="b">
+      <c r="L329" s="114">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -19740,7 +20101,7 @@
       <c r="J330" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L330" s="114" t="b">
+      <c r="L330" s="114">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -19779,7 +20140,7 @@
       <c r="K331" s="33" t="s">
         <v>736</v>
       </c>
-      <c r="L331" s="114" t="b">
+      <c r="L331" s="114">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -19815,7 +20176,7 @@
       <c r="J332" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L332" s="114" t="b">
+      <c r="L332" s="114">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -19854,7 +20215,7 @@
       <c r="K333" s="34" t="s">
         <v>809</v>
       </c>
-      <c r="L333" s="114" t="b">
+      <c r="L333" s="114">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -19890,7 +20251,7 @@
       <c r="J334" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L334" s="114" t="b">
+      <c r="L334" s="114">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -19929,7 +20290,7 @@
       <c r="K335" s="5" t="s">
         <v>745</v>
       </c>
-      <c r="L335" s="114" t="b">
+      <c r="L335" s="114">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -19965,7 +20326,7 @@
       <c r="J336" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L336" s="114" t="b">
+      <c r="L336" s="114">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -20001,7 +20362,7 @@
       <c r="J337" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L337" s="114" t="b">
+      <c r="L337" s="114">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -20037,7 +20398,7 @@
       <c r="J338" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L338" s="114" t="b">
+      <c r="L338" s="114">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -20073,7 +20434,7 @@
       <c r="J339" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L339" s="114" t="b">
+      <c r="L339" s="114">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -20109,7 +20470,7 @@
       <c r="J340" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L340" s="114" t="b">
+      <c r="L340" s="114">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -20145,16 +20506,13 @@
       <c r="J341" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L341" s="114" t="b">
+      <c r="L341" s="114">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L342" s="114">
-        <f>COUNTIF(L2:L341, TRUE)</f>
-        <v>261</v>
-      </c>
+      <c r="L342" s="114"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K341" xr:uid="{4F1E1092-59D6-0841-9542-AE5505D0AA25}"/>
